--- a/report/Report-Pelaporan Manajemen- Laporan Produksi dan Pendapatan Pandu.xlsx
+++ b/report/Report-Pelaporan Manajemen- Laporan Produksi dan Pendapatan Pandu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>LAPORAN PRODUKSI GERAKAN DAN PENDAPATAN PEMANDUAN KAPAL</t>
   </si>
@@ -33,9 +33,6 @@
     <t>:</t>
   </si>
   <si>
-    <t>TANJUNG PRIOK</t>
-  </si>
-  <si>
     <t>BULAN / TAHUN</t>
   </si>
   <si>
@@ -81,49 +78,55 @@
     <t>${table:global.NM_PERS_PANDU}</t>
   </si>
   <si>
-    <t>${table:global.gr_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.gr_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.gr_total}</t>
-  </si>
-  <si>
-    <t>${table:global.gt_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.gt_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.gt_total}</t>
-  </si>
-  <si>
-    <t>${table:global.pnd_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.pnd_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.pnd_total}</t>
-  </si>
-  <si>
-    <t>${table:global.wt_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.wt_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.wt_total}</t>
-  </si>
-  <si>
-    <t>${table:global.pnbp}</t>
-  </si>
-  <si>
-    <t>${table:global.pdpt}</t>
-  </si>
-  <si>
-    <t>${table:global.no}</t>
+    <t>${table:global.GERAKAN_DN}</t>
+  </si>
+  <si>
+    <t>${table:global.GERAKAN_LN}</t>
+  </si>
+  <si>
+    <t>${table:global.TOTAL_GERAKAN}</t>
+  </si>
+  <si>
+    <t>${table:global.GT_DN}</t>
+  </si>
+  <si>
+    <t>${table:global.GT_LN}</t>
+  </si>
+  <si>
+    <t>${table:global.TOTAL_GT}</t>
+  </si>
+  <si>
+    <t>${table:global.LAMA_PANDU_DN}</t>
+  </si>
+  <si>
+    <t>${table:global.LAMA_PANDU_LN}</t>
+  </si>
+  <si>
+    <t>${table:global.TOTAL_LAMA_PANDU}</t>
+  </si>
+  <si>
+    <t>${table:global.WT_DN}</t>
+  </si>
+  <si>
+    <t>${table:global.WT_LN}</t>
+  </si>
+  <si>
+    <t>${table:global.TOTAL_WT}</t>
+  </si>
+  <si>
+    <t>${table:global.TOTAL_PENDAPATAN_PANDU}</t>
+  </si>
+  <si>
+    <t>${table:global.PNBP_TOTAL_PENDAPATAN_PANDU}</t>
+  </si>
+  <si>
+    <t>${table:global.NO}</t>
+  </si>
+  <si>
+    <t>${cabang}</t>
+  </si>
+  <si>
+    <t>${date}</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1087,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="C6" sqref="C6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1157,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1168,15 +1171,15 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13">
-        <v>44256</v>
+      <c r="E5" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1187,13 +1190,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1207,37 +1210,37 @@
       <c r="M6" s="7"/>
       <c r="N6" s="8"/>
       <c r="O6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="8"/>
       <c r="L7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="8"/>
       <c r="O7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P7" s="3">
         <v>0.05</v>
@@ -1247,93 +1250,93 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:16" ht="41" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>32</v>

--- a/report/Report-Pelaporan Manajemen- Laporan Produksi dan Pendapatan Pandu.xlsx
+++ b/report/Report-Pelaporan Manajemen- Laporan Produksi dan Pendapatan Pandu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\ilcs\simpanda\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\simpanda_oracle\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4188"/>
   </bookViews>
   <sheets>
     <sheet name="Report-Pelaporan Manajemen- Lap" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +283,20 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -715,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -741,9 +755,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -763,6 +774,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1086,113 +1101,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:N6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" customWidth="1"/>
-    <col min="5" max="5" width="4.26953125" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" customWidth="1"/>
-    <col min="8" max="8" width="4.26953125" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" customWidth="1"/>
-    <col min="11" max="11" width="4.26953125" customWidth="1"/>
-    <col min="12" max="12" width="8.54296875" customWidth="1"/>
-    <col min="13" max="13" width="7.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.26953125" customWidth="1"/>
-    <col min="15" max="15" width="7.90625" customWidth="1"/>
-    <col min="16" max="16" width="4.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="5" width="4.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" customWidth="1"/>
+    <col min="14" max="14" width="4.21875" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" customWidth="1"/>
+    <col min="16" max="16" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1216,9 +1231,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1246,9 +1261,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>

--- a/report/Report-Pelaporan Manajemen- Laporan Produksi dan Pendapatan Pandu.xlsx
+++ b/report/Report-Pelaporan Manajemen- Laporan Produksi dan Pendapatan Pandu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\simpanda_oracle\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\ilcs\simpanda\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4188"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
   </bookViews>
   <sheets>
     <sheet name="Report-Pelaporan Manajemen- Lap" sheetId="1" r:id="rId1"/>
@@ -75,58 +75,58 @@
     <t>Rp</t>
   </si>
   <si>
-    <t>${table:global.NM_PERS_PANDU}</t>
-  </si>
-  <si>
-    <t>${table:global.GERAKAN_DN}</t>
-  </si>
-  <si>
-    <t>${table:global.GERAKAN_LN}</t>
-  </si>
-  <si>
-    <t>${table:global.TOTAL_GERAKAN}</t>
-  </si>
-  <si>
-    <t>${table:global.GT_DN}</t>
-  </si>
-  <si>
-    <t>${table:global.GT_LN}</t>
-  </si>
-  <si>
-    <t>${table:global.TOTAL_GT}</t>
-  </si>
-  <si>
-    <t>${table:global.LAMA_PANDU_DN}</t>
-  </si>
-  <si>
-    <t>${table:global.LAMA_PANDU_LN}</t>
-  </si>
-  <si>
-    <t>${table:global.TOTAL_LAMA_PANDU}</t>
-  </si>
-  <si>
-    <t>${table:global.WT_DN}</t>
-  </si>
-  <si>
-    <t>${table:global.WT_LN}</t>
-  </si>
-  <si>
-    <t>${table:global.TOTAL_WT}</t>
-  </si>
-  <si>
-    <t>${table:global.TOTAL_PENDAPATAN_PANDU}</t>
-  </si>
-  <si>
-    <t>${table:global.PNBP_TOTAL_PENDAPATAN_PANDU}</t>
-  </si>
-  <si>
-    <t>${table:global.NO}</t>
-  </si>
-  <si>
     <t>${cabang}</t>
   </si>
   <si>
     <t>${date}</t>
+  </si>
+  <si>
+    <t>${table:global.no}</t>
+  </si>
+  <si>
+    <t>${table:global.nmPersPandu}</t>
+  </si>
+  <si>
+    <t>${table:global.gerakanDn}</t>
+  </si>
+  <si>
+    <t>${table:global.gerakanLn}</t>
+  </si>
+  <si>
+    <t>${table:global.totalGerakan}</t>
+  </si>
+  <si>
+    <t>${table:global.gtDn}</t>
+  </si>
+  <si>
+    <t>${table:global.gtLn}</t>
+  </si>
+  <si>
+    <t>${table:global.totalGt}</t>
+  </si>
+  <si>
+    <t>${table:global.lamaPanduDn}</t>
+  </si>
+  <si>
+    <t>${table:global.lamaPanduLn}</t>
+  </si>
+  <si>
+    <t>${table:global.totalLamaPandu}</t>
+  </si>
+  <si>
+    <t>${table:global.wtDn}</t>
+  </si>
+  <si>
+    <t>${table:global.wtLn}</t>
+  </si>
+  <si>
+    <t>${table:global.totalWt}</t>
+  </si>
+  <si>
+    <t>${table:global.totalPendapatanPandu}</t>
+  </si>
+  <si>
+    <t>${table:global.pnbpTotalPendapatanPandu}</t>
   </si>
 </sst>
 </file>
@@ -755,11 +755,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -774,10 +778,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1102,112 +1102,112 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P2"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" customWidth="1"/>
-    <col min="14" max="14" width="4.21875" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" customWidth="1"/>
-    <col min="16" max="16" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" customWidth="1"/>
+    <col min="8" max="8" width="4.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" customWidth="1"/>
+    <col min="11" max="11" width="4.1796875" customWidth="1"/>
+    <col min="12" max="12" width="8.54296875" customWidth="1"/>
+    <col min="13" max="13" width="7.81640625" customWidth="1"/>
+    <col min="14" max="14" width="4.1796875" customWidth="1"/>
+    <col min="15" max="15" width="7.90625" customWidth="1"/>
+    <col min="16" max="16" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="E4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="E5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1231,9 +1231,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1261,9 +1261,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1307,54 +1307,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="O9" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
